--- a/irrelevant_questions.xlsx
+++ b/irrelevant_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedantkadam/Desktop/coding/LLMs/ask-multiple-pdfs-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58CDE70-E020-0344-A2DA-6B15477A96ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F20779-9409-5E43-973F-7FA5A5FA08D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="1000" windowWidth="25380" windowHeight="15580" xr2:uid="{22C4AF36-3ADA-924C-B277-AA0BDB57CD01}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
